--- a/KBORU (TRY).xlsx
+++ b/KBORU (TRY).xlsx
@@ -2305,6 +2305,9 @@
       <c r="A108" t="str">
         <v xml:space="preserve">    Hedge Dahil Net Yabancı Para Pozisyonu</v>
       </c>
+      <c r="B108">
+        <v>-1918041523</v>
+      </c>
       <c r="C108">
         <v>-1739346063.9369383</v>
       </c>
@@ -2474,6 +2477,9 @@
       <c r="A5" t="str">
         <v xml:space="preserve">    Yurt İçi Satışlar</v>
       </c>
+      <c r="B5">
+        <v>2823730430</v>
+      </c>
       <c r="C5">
         <v>1893553281.0448668</v>
       </c>
@@ -2484,7 +2490,7 @@
         <v>3189178151.249975</v>
       </c>
       <c r="F5">
-        <v>2364687701.624699</v>
+        <v>2542929270</v>
       </c>
       <c r="G5">
         <v>2006343253.5349166</v>
@@ -2506,6 +2512,9 @@
       <c r="A6" t="str">
         <v xml:space="preserve">    Yurt Dışı Satışlar</v>
       </c>
+      <c r="B6">
+        <v>952359315</v>
+      </c>
       <c r="C6">
         <v>748995073.8091738</v>
       </c>
@@ -2516,7 +2525,7 @@
         <v>1789999891.9101598</v>
       </c>
       <c r="F6">
-        <v>1740683740.8712595</v>
+        <v>1871311297</v>
       </c>
       <c r="G6">
         <v>927784669.6852853</v>
@@ -3930,6 +3939,9 @@
       <c r="A5" t="str">
         <v xml:space="preserve">    Yurt İçi Satışlar</v>
       </c>
+      <c r="B5">
+        <v>930177148.9551332</v>
+      </c>
       <c r="C5">
         <v>772979566.957164</v>
       </c>
@@ -3937,10 +3949,10 @@
         <v>1120573714.0877028</v>
       </c>
       <c r="E5">
-        <v>824490449.6252761</v>
+        <v>646248881.2499752</v>
       </c>
       <c r="F5">
-        <v>358344448.0897825</v>
+        <v>536586016.46508336</v>
       </c>
       <c r="G5">
         <v>1117025353.504299</v>
@@ -3959,6 +3971,9 @@
       <c r="A6" t="str">
         <v xml:space="preserve">    Yurt Dışı Satışlar</v>
       </c>
+      <c r="B6">
+        <v>203364241.19082618</v>
+      </c>
       <c r="C6">
         <v>676025561.8510809</v>
       </c>
@@ -3966,10 +3981,10 @@
         <v>72969511.95809296</v>
       </c>
       <c r="E6">
-        <v>49316151.038900375</v>
+        <v>-81311405.08984017</v>
       </c>
       <c r="F6">
-        <v>812899071.1859741</v>
+        <v>943526627.3147147</v>
       </c>
       <c r="G6">
         <v>379584408.82367814</v>
@@ -5188,6 +5203,9 @@
       <c r="A5" t="str">
         <v xml:space="preserve">    Yurt İçi Satışlar</v>
       </c>
+      <c r="B5">
+        <v>3469979311.249975</v>
+      </c>
       <c r="C5">
         <v>3076388178.7599254</v>
       </c>
@@ -5198,7 +5216,7 @@
         <v>3189178151.249975</v>
       </c>
       <c r="F5">
-        <v>3473154121.880761</v>
+        <v>3651395690.256062</v>
       </c>
       <c r="G5">
         <v>4044254663.275275</v>
@@ -5211,6 +5229,9 @@
       <c r="A6" t="str">
         <v xml:space="preserve">    Yurt Dışı Satışlar</v>
       </c>
+      <c r="B6">
+        <v>871047909.9101598</v>
+      </c>
       <c r="C6">
         <v>1611210296.0340483</v>
       </c>
@@ -5221,7 +5242,7 @@
         <v>1789999891.9101598</v>
       </c>
       <c r="F6">
-        <v>1898428840.7177458</v>
+        <v>2029056396.8464863</v>
       </c>
       <c r="G6">
         <v>1170272522.2408164</v>
